--- a/data/trans_orig/P1805-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F38037-B46C-4CBF-8FBA-DC052A109E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4641F857-DEE4-48C5-870F-D213DFB035D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{063B7DCF-60F8-4433-B19B-B00D18EEF6BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE047DD2-D4FF-4E3E-B7D0-D16422CF35BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,685 +75,721 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,69%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -1168,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F51C00-5E77-4160-A597-A9177A0BC38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DB2118-BD5E-4EBF-9888-E086C36F9A42}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,10 +1671,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1689,13 @@
         <v>651710</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -1668,13 +1704,13 @@
         <v>640096</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -1683,13 +1719,13 @@
         <v>1291806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1781,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1793,13 @@
         <v>12255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -1772,13 +1808,13 @@
         <v>27283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -1787,13 +1823,13 @@
         <v>39538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1844,13 @@
         <v>633793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>577</v>
@@ -1823,28 +1859,28 @@
         <v>621794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1147</v>
       </c>
       <c r="N14" s="7">
-        <v>1255587</v>
+        <v>1255588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,7 +1922,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1900,7 +1936,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1912,13 +1948,13 @@
         <v>8231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -1927,13 +1963,13 @@
         <v>27232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -1945,10 +1981,10 @@
         <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1999,13 @@
         <v>469687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>409</v>
@@ -1978,13 +2014,13 @@
         <v>469617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>826</v>
@@ -1996,10 +2032,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2091,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2067,13 +2103,13 @@
         <v>7441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2082,13 +2118,13 @@
         <v>35042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2097,13 +2133,13 @@
         <v>42482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2154,13 @@
         <v>583887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -2133,13 +2169,13 @@
         <v>742889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1246</v>
@@ -2148,13 +2184,13 @@
         <v>1326777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2258,13 @@
         <v>61063</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -2237,13 +2273,13 @@
         <v>130939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -2252,13 +2288,13 @@
         <v>192002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2309,13 @@
         <v>3333287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>3221</v>
@@ -2288,13 +2324,13 @@
         <v>3413603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>6393</v>
@@ -2303,13 +2339,13 @@
         <v>6746890</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,7 +2401,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8430A131-0570-4F0B-B17D-54CA459E418C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C01B2B-6C5C-4402-B85C-B189310BBA01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2404,7 +2440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2511,13 +2547,13 @@
         <v>17018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2526,13 +2562,13 @@
         <v>20414</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2541,13 +2577,13 @@
         <v>37432</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2598,13 @@
         <v>360661</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -2577,13 +2613,13 @@
         <v>334543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -2592,13 +2628,13 @@
         <v>695204</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2702,13 @@
         <v>10979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2681,13 +2717,13 @@
         <v>20000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2696,13 +2732,13 @@
         <v>30979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2753,13 @@
         <v>417417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>444</v>
@@ -2732,13 +2768,13 @@
         <v>478577</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>738</v>
@@ -2747,13 +2783,13 @@
         <v>895994</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2857,13 @@
         <v>24451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2836,13 +2872,13 @@
         <v>26345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2851,13 +2887,13 @@
         <v>50796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2908,13 @@
         <v>532801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
@@ -2887,13 +2923,13 @@
         <v>557131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -2902,13 +2938,13 @@
         <v>1089931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +3000,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2976,13 +3012,13 @@
         <v>36293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2991,13 +3027,13 @@
         <v>33281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3006,13 +3042,13 @@
         <v>69574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3063,13 @@
         <v>687697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
@@ -3042,28 +3078,28 @@
         <v>713980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1724</v>
       </c>
       <c r="N14" s="7">
-        <v>1401678</v>
+        <v>1401677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3141,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3119,7 +3155,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3131,13 +3167,13 @@
         <v>18873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -3146,13 +3182,13 @@
         <v>31241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3161,13 +3197,13 @@
         <v>50114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3218,13 @@
         <v>581284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>949</v>
@@ -3197,13 +3233,13 @@
         <v>565097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>1593</v>
@@ -3212,13 +3248,13 @@
         <v>1146381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3310,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3283,16 +3319,16 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>6931</v>
+        <v>6932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -3301,13 +3337,13 @@
         <v>27138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3316,13 +3352,13 @@
         <v>34070</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3373,13 @@
         <v>690823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>1663</v>
@@ -3352,13 +3388,13 @@
         <v>998874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>2680</v>
@@ -3367,13 +3403,13 @@
         <v>1689697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3421,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3441,13 +3477,13 @@
         <v>114547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -3456,13 +3492,13 @@
         <v>158418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -3471,13 +3507,13 @@
         <v>272965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3528,13 @@
         <v>3270681</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>5153</v>
@@ -3507,13 +3543,13 @@
         <v>3648204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>8434</v>
@@ -3522,13 +3558,13 @@
         <v>6918885</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3620,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4641F857-DEE4-48C5-870F-D213DFB035D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB102A4E-5316-4178-AE43-59D814842A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE047DD2-D4FF-4E3E-B7D0-D16422CF35BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B13F2BB5-67D4-476D-A12E-A1CEAD022A84}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="250">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,622 +75,616 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
   </si>
   <si>
     <t>94,61%</t>
@@ -1204,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DB2118-BD5E-4EBF-9888-E086C36F9A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D464C251-4F99-4350-B6E8-EC7A211C5570}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1671,10 +1665,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1683,13 @@
         <v>651710</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -1704,13 +1698,13 @@
         <v>640096</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -1719,13 +1713,13 @@
         <v>1291806</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1775,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1793,13 +1787,13 @@
         <v>12255</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -1808,13 +1802,13 @@
         <v>27283</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -1823,13 +1817,13 @@
         <v>39538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1838,13 @@
         <v>633793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>577</v>
@@ -1859,28 +1853,28 @@
         <v>621794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1147</v>
       </c>
       <c r="N14" s="7">
-        <v>1255588</v>
+        <v>1255587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1916,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1948,13 +1942,13 @@
         <v>8231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -1963,13 +1957,13 @@
         <v>27232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -1978,13 +1972,13 @@
         <v>35463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1993,13 @@
         <v>469687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>409</v>
@@ -2014,13 +2008,13 @@
         <v>469617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>826</v>
@@ -2029,13 +2023,13 @@
         <v>939304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2085,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2103,13 +2097,13 @@
         <v>7441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2118,13 +2112,13 @@
         <v>35042</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2154,13 +2148,13 @@
         <v>583887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -2169,13 +2163,13 @@
         <v>742889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1246</v>
@@ -2184,13 +2178,13 @@
         <v>1326777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2252,13 @@
         <v>61063</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -2273,13 +2267,13 @@
         <v>130939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -2288,13 +2282,13 @@
         <v>192002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2318,13 @@
         <v>3413603</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>6393</v>
@@ -2339,13 +2333,13 @@
         <v>6746890</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2395,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C01B2B-6C5C-4402-B85C-B189310BBA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923ED78D-3FD3-496F-A3BA-EE55F5F64AA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2440,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2547,13 +2541,13 @@
         <v>17018</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2562,13 +2556,13 @@
         <v>20414</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2577,13 +2571,13 @@
         <v>37432</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2592,13 @@
         <v>360661</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -2613,13 +2607,13 @@
         <v>334543</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -2628,13 +2622,13 @@
         <v>695204</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,10 +2854,10 @@
         <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2872,13 +2866,13 @@
         <v>26345</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2887,13 +2881,13 @@
         <v>50796</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>532801</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>810</v>
@@ -2923,13 +2917,13 @@
         <v>557131</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -2938,13 +2932,13 @@
         <v>1089931</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +2994,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3012,13 +3006,13 @@
         <v>36293</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -3027,13 +3021,13 @@
         <v>33281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3042,13 +3036,13 @@
         <v>69574</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>687697</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
@@ -3078,13 +3072,13 @@
         <v>713980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1724</v>
@@ -3093,13 +3087,13 @@
         <v>1401677</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3149,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3167,10 +3161,10 @@
         <v>18873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>162</v>
@@ -3182,13 +3176,13 @@
         <v>31241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3197,13 +3191,13 @@
         <v>50114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>581284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>949</v>
@@ -3233,13 +3227,13 @@
         <v>565097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1593</v>
@@ -3248,13 +3242,13 @@
         <v>1146381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3304,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3322,13 +3316,13 @@
         <v>6932</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -3337,13 +3331,13 @@
         <v>27138</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3352,13 +3346,13 @@
         <v>34070</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3367,13 @@
         <v>690823</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>1663</v>
@@ -3388,13 +3382,13 @@
         <v>998874</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>2680</v>
@@ -3403,13 +3397,13 @@
         <v>1689697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3471,13 @@
         <v>114547</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -3492,13 +3486,13 @@
         <v>158418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -3507,13 +3501,13 @@
         <v>272965</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3522,13 @@
         <v>3270681</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>5153</v>
@@ -3543,13 +3537,13 @@
         <v>3648204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>8434</v>
@@ -3558,13 +3552,13 @@
         <v>6918885</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,7 +3614,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A44849-DECB-40E3-AB78-33DDCA697D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{531974A2-DE30-48B2-AC1C-958526E62948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BA6BB24-6AD0-4244-BE81-C3C15068B764}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0672268-930F-4DF9-85DF-FE3388F99825}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="353">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>991.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,748 +176,868 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -926,58 +1046,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9149995-63ED-4C5C-AFB5-957FF06A4E31}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750C2A29-2603-477E-92C7-892C4E264D5E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2537,10 +2657,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2552,31 +2672,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2600,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2615,7 +2735,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2630,7 +2750,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2666,7 +2786,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2681,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,10 +2810,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2705,10 +2825,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2720,10 +2840,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2737,52 +2857,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2806,7 +2926,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2821,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2836,7 +2956,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2872,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2887,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,63 +3016,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2965,8 +3292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975888C0-A08C-43A1-807C-F673D47941D6}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A682C9-5BB0-45A5-B133-3940F8D2A4A8}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2982,7 +3309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3092,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3107,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3122,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3146,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3161,7 +3488,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3176,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3212,7 +3539,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3227,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3367,7 +3694,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3418,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3710,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3725,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3740,7 +4067,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3764,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3779,7 +4106,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3794,7 +4121,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +4142,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3830,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3845,7 +4172,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -3985,7 +4312,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4036,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4113,46 +4440,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4176,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4191,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4206,7 +4533,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4554,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4242,7 +4569,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4257,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,10 +4593,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -4281,10 +4608,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -4296,10 +4623,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4313,52 +4640,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4382,7 +4709,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4397,7 +4724,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4412,7 +4739,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,7 +4760,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4448,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4463,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,63 +4799,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4541,8 +5075,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C98785-6DDD-4B4A-85EA-FCCE9A23B5A1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8567B869-4F67-45D0-B9D3-E8D901ACFB94}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4558,7 +5092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4686,7 +5220,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4716,13 +5250,13 @@
         <v>8264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4731,13 +5265,13 @@
         <v>8193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4746,13 +5280,13 @@
         <v>16457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +5301,13 @@
         <v>411199</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>397</v>
@@ -4782,13 +5316,13 @@
         <v>387562</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>782</v>
@@ -4797,13 +5331,13 @@
         <v>798761</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +5411,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4892,7 +5426,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4907,7 +5441,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +5456,13 @@
         <v>7486</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4937,13 +5471,13 @@
         <v>11898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4952,13 +5486,13 @@
         <v>19384</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5507,13 @@
         <v>583010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>567</v>
@@ -4988,13 +5522,13 @@
         <v>551646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>1127</v>
@@ -5003,13 +5537,13 @@
         <v>1134656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,7 +5617,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5128,13 +5662,13 @@
         <v>17387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5143,13 +5677,13 @@
         <v>21290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5158,13 +5692,13 @@
         <v>38677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5713,13 @@
         <v>651710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -5194,13 +5728,13 @@
         <v>640096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -5209,13 +5743,13 @@
         <v>1291806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5823,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5319,7 +5853,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5868,13 @@
         <v>12255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5349,13 +5883,13 @@
         <v>27283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -5364,13 +5898,13 @@
         <v>39538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5919,13 @@
         <v>633793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>577</v>
@@ -5400,13 +5934,13 @@
         <v>621794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>1147</v>
@@ -5415,13 +5949,13 @@
         <v>1255587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,7 +6029,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5510,7 +6044,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5525,7 +6059,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +6074,13 @@
         <v>8231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -5555,13 +6089,13 @@
         <v>27232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5570,13 +6104,13 @@
         <v>35463</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +6125,13 @@
         <v>469687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5606,13 +6140,13 @@
         <v>469617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>826</v>
@@ -5621,13 +6155,13 @@
         <v>939304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +6235,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5716,7 +6250,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5731,7 +6265,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,49 +6274,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>7441</v>
+        <v>3714</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>35042</v>
+        <v>16516</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>42482</v>
+        <v>20230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,49 +6325,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>619</v>
+        <v>321</v>
       </c>
       <c r="D26" s="7">
-        <v>583887</v>
+        <v>330616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="H26" s="7">
-        <v>627</v>
+        <v>340</v>
       </c>
       <c r="I26" s="7">
-        <v>742889</v>
+        <v>361246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
-        <v>1246</v>
+        <v>661</v>
       </c>
       <c r="N26" s="7">
-        <v>1326777</v>
+        <v>691862</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,10 +6376,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5857,10 +6391,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5872,10 +6406,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5889,7 +6423,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5907,7 +6441,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5922,7 +6456,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5937,7 +6471,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,49 +6480,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>61063</v>
+        <v>3727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="I29" s="7">
-        <v>130939</v>
+        <v>18526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="N29" s="7">
-        <v>192002</v>
+        <v>22252</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,49 +6531,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3172</v>
+        <v>298</v>
       </c>
       <c r="D30" s="7">
-        <v>3333287</v>
+        <v>253271</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7">
-        <v>3221</v>
+        <v>287</v>
       </c>
       <c r="I30" s="7">
-        <v>3413603</v>
+        <v>381643</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
-        <v>6393</v>
+        <v>585</v>
       </c>
       <c r="N30" s="7">
-        <v>6746890</v>
+        <v>634915</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,63 +6582,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7">
+        <v>61063</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="7">
+        <v>117</v>
+      </c>
+      <c r="I33" s="7">
+        <v>130939</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="7">
+        <v>176</v>
+      </c>
+      <c r="N33" s="7">
+        <v>192002</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3172</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3333287</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3221</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3413603</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6393</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6746890</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6117,8 +6858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EA5CD3-CCB2-4F2A-A290-7405DBA738C8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586F67C-A9C3-4736-8B3B-7822B9B71A25}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6134,7 +6875,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6247,7 +6988,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6262,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6277,7 +7018,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,46 +7030,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>17018</v>
+        <v>17955</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>20414</v>
+        <v>18077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>37432</v>
+        <v>36031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,46 +7081,46 @@
         <v>165</v>
       </c>
       <c r="D6" s="7">
-        <v>360661</v>
+        <v>382032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7">
         <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>334543</v>
+        <v>295123</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>362</v>
       </c>
       <c r="N6" s="7">
-        <v>695204</v>
+        <v>677156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,7 +7132,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6406,7 +7147,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6421,7 +7162,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6453,7 +7194,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6468,7 +7209,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6483,7 +7224,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,46 +7236,46 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>10979</v>
+        <v>10803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>20000</v>
+        <v>18332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>30979</v>
+        <v>29134</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,46 +7287,46 @@
         <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>417417</v>
+        <v>412744</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>444</v>
       </c>
       <c r="I10" s="7">
-        <v>478577</v>
+        <v>493172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>738</v>
       </c>
       <c r="N10" s="7">
-        <v>895994</v>
+        <v>905917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,7 +7338,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6612,7 +7353,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6627,7 +7368,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6659,7 +7400,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6674,7 +7415,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6689,7 +7430,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,46 +7442,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>24451</v>
+        <v>23400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>26345</v>
+        <v>24758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>50796</v>
+        <v>48158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,46 +7493,46 @@
         <v>527</v>
       </c>
       <c r="D14" s="7">
-        <v>532801</v>
+        <v>512938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>810</v>
       </c>
       <c r="I14" s="7">
-        <v>557131</v>
+        <v>517710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>1337</v>
       </c>
       <c r="N14" s="7">
-        <v>1089931</v>
+        <v>1030648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +7544,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6818,7 +7559,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6833,7 +7574,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6880,7 +7621,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6895,7 +7636,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,46 +7648,46 @@
         <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>36293</v>
+        <v>34528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>33281</v>
+        <v>30806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>69574</v>
+        <v>65335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,46 +7699,46 @@
         <v>634</v>
       </c>
       <c r="D18" s="7">
-        <v>687697</v>
+        <v>853258</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>1090</v>
       </c>
       <c r="I18" s="7">
-        <v>713980</v>
+        <v>682075</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>1724</v>
       </c>
       <c r="N18" s="7">
-        <v>1401678</v>
+        <v>1535332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7750,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -7024,7 +7765,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -7039,7 +7780,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -7101,7 +7842,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7854,46 @@
         <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>18873</v>
+        <v>17689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
       </c>
       <c r="I21" s="7">
-        <v>31241</v>
+        <v>28906</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
       </c>
       <c r="N21" s="7">
-        <v>50114</v>
+        <v>46595</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,46 +7905,46 @@
         <v>644</v>
       </c>
       <c r="D22" s="7">
-        <v>581284</v>
+        <v>543545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>949</v>
       </c>
       <c r="I22" s="7">
-        <v>565097</v>
+        <v>518321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>1593</v>
       </c>
       <c r="N22" s="7">
-        <v>1146381</v>
+        <v>1061865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,7 +7956,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7230,7 +7971,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596338</v>
+        <v>547227</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7245,7 +7986,7 @@
         <v>1664</v>
       </c>
       <c r="N23" s="7">
-        <v>1196495</v>
+        <v>1108460</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7277,7 +8018,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7292,7 +8033,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7307,7 +8048,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,49 +8057,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>6931</v>
+        <v>3496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>27138</v>
+        <v>13309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>34070</v>
+        <v>16805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,49 +8108,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>1017</v>
+        <v>564</v>
       </c>
       <c r="D26" s="7">
-        <v>690823</v>
+        <v>364669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7">
-        <v>1663</v>
+        <v>802</v>
       </c>
       <c r="I26" s="7">
-        <v>998874</v>
+        <v>595059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
-        <v>2680</v>
+        <v>1366</v>
       </c>
       <c r="N26" s="7">
-        <v>1689697</v>
+        <v>959728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,10 +8159,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7433,10 +8174,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026012</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7448,10 +8189,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1723767</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7465,7 +8206,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7483,7 +8224,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7498,7 +8239,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7513,7 +8254,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,49 +8263,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>114547</v>
+        <v>3053</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="I29" s="7">
-        <v>158418</v>
+        <v>10622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="M29" s="7">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>272965</v>
+        <v>13675</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,49 +8314,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3281</v>
+        <v>453</v>
       </c>
       <c r="D30" s="7">
-        <v>3270681</v>
+        <v>279706</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="H30" s="7">
-        <v>5153</v>
+        <v>861</v>
       </c>
       <c r="I30" s="7">
-        <v>3648204</v>
+        <v>414643</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
-        <v>8434</v>
+        <v>1314</v>
       </c>
       <c r="N30" s="7">
-        <v>6918885</v>
+        <v>694349</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,63 +8365,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>95</v>
+      </c>
+      <c r="D33" s="7">
+        <v>110924</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H33" s="7">
+        <v>209</v>
+      </c>
+      <c r="I33" s="7">
+        <v>144810</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M33" s="7">
+        <v>304</v>
+      </c>
+      <c r="N33" s="7">
+        <v>255734</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3281</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3348893</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5153</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3516103</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M34" s="7">
+        <v>8434</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6864996</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5362</v>
       </c>
-      <c r="I31" s="7">
-        <v>3806622</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3660913</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8738</v>
       </c>
-      <c r="N31" s="7">
-        <v>7191850</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7120730</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
